--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gon13\Desktop\SLR_Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA13BA67-6F71-4BE8-80FF-FD0D8209D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64602FB-ABE3-40EB-89E2-BF70A798A55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82FA2198-A6C1-4281-B50F-11B783A36942}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="144">
   <si>
     <t>ACTION</t>
   </si>
@@ -33,9 +33,6 @@
     <t>GOTO</t>
   </si>
   <si>
-    <t>ϵ</t>
-  </si>
-  <si>
     <t>vtype</t>
   </si>
   <si>
@@ -157,6 +154,21 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>2</t>
     </r>
   </si>
@@ -171,11 +183,300 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -185,7 +486,52 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>6</t>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
     </r>
   </si>
   <si>
@@ -199,7 +545,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>7</t>
+      <t>32</t>
     </r>
   </si>
   <si>
@@ -214,7 +560,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>19</t>
     </r>
   </si>
   <si>
@@ -228,11 +574,56 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>10</t>
     </r>
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -242,7 +633,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>11</t>
+      <t>42</t>
     </r>
   </si>
   <si>
@@ -256,7 +647,22 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>12</t>
+      <t>46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
     </r>
   </si>
   <si>
@@ -270,7 +676,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>13</t>
+      <t>48</t>
     </r>
   </si>
   <si>
@@ -285,7 +691,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>21</t>
     </r>
   </si>
   <si>
@@ -299,7 +705,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>14</t>
+      <t>50</t>
     </r>
   </si>
   <si>
@@ -314,7 +720,22 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>3</t>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
     </r>
   </si>
   <si>
@@ -328,7 +749,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>23</t>
+      <t>52</t>
     </r>
   </si>
   <si>
@@ -342,6 +763,65 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>17</t>
     </r>
   </si>
@@ -356,7 +836,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>18</t>
+      <t>63</t>
     </r>
   </si>
   <si>
@@ -370,7 +850,22 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>19</t>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>29</t>
     </r>
   </si>
   <si>
@@ -384,7 +879,37 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>22</t>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
     </r>
   </si>
   <si>
@@ -398,7 +923,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>24</t>
+      <t>69</t>
     </r>
   </si>
   <si>
@@ -413,6 +938,346 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>73</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>FIRST / FOLLOW table</t>
+  </si>
+  <si>
+    <t>Nonterminal</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>FOLLOW</t>
+  </si>
+  <si>
+    <t>{ϵ,vtype}</t>
+  </si>
+  <si>
+    <t>{$}</t>
+  </si>
+  <si>
+    <t>{vtype}</t>
+  </si>
+  <si>
+    <t>{ϵ,vtype,id,if,while}</t>
+  </si>
+  <si>
+    <t>{id}</t>
+  </si>
+  <si>
+    <t>{semi}</t>
+  </si>
+  <si>
+    <t>{literal,character,boolstr,lparen,id,num}</t>
+  </si>
+  <si>
+    <t>{lparen,id,num}</t>
+  </si>
+  <si>
+    <t>{semi,rparen}</t>
+  </si>
+  <si>
+    <t>{addsub,semi,rparen}</t>
+  </si>
+  <si>
+    <t>{multdiv,addsub,semi,rparen}</t>
+  </si>
+  <si>
+    <t>{vtype,ϵ}</t>
+  </si>
+  <si>
+    <t>{rparen}</t>
+  </si>
+  <si>
+    <t>{comma,ϵ}</t>
+  </si>
+  <si>
+    <t>{return,rbrace}</t>
+  </si>
+  <si>
+    <t>{vtype,id,if,while}</t>
+  </si>
+  <si>
+    <t>{boolstr}</t>
+  </si>
+  <si>
+    <t>{comp}</t>
+  </si>
+  <si>
+    <t>{else,ϵ}</t>
+  </si>
+  <si>
+    <t>{return}</t>
+  </si>
+  <si>
+    <t>{rbrace}</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>61</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>62</t>
+    </r>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>4</t>
     </r>
   </si>
@@ -427,7 +1292,22 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>27</t>
+      <t>57</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
     </r>
   </si>
   <si>
@@ -441,97 +1321,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>11</t>
+      <t>70</t>
     </r>
   </si>
   <si>
@@ -545,855 +1335,8 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>39</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>38</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>48</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>53</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>56</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>67</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>69</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>72</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>73</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>76</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>27</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>77</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>79</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
-    <t>State</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRST / FOLLOW table</t>
-  </si>
-  <si>
-    <t>Nonterminal</t>
-  </si>
-  <si>
-    <t>FIRST</t>
-  </si>
-  <si>
-    <t>FOLLOW</t>
-  </si>
-  <si>
-    <t>{ϵ,vtype}</t>
-  </si>
-  <si>
-    <t>{$}</t>
-  </si>
-  <si>
-    <t>{vtype}</t>
-  </si>
-  <si>
-    <t>{ϵ,vtype,id,if,while}</t>
-  </si>
-  <si>
-    <t>{id}</t>
-  </si>
-  <si>
-    <t>{semi}</t>
-  </si>
-  <si>
-    <t>{literal,character,boolstr,lparen,id,num}</t>
-  </si>
-  <si>
-    <t>{lparen,id,num}</t>
-  </si>
-  <si>
-    <t>{semi,rparen}</t>
-  </si>
-  <si>
-    <t>{addsub,semi,rparen}</t>
-  </si>
-  <si>
-    <t>{multdiv,addsub,semi,rparen}</t>
-  </si>
-  <si>
-    <t>{vtype,ϵ}</t>
-  </si>
-  <si>
-    <t>{rparen}</t>
-  </si>
-  <si>
-    <t>{comma,ϵ}</t>
-  </si>
-  <si>
-    <t>{return,rbrace}</t>
-  </si>
-  <si>
-    <t>{vtype,id,if,while}</t>
-  </si>
-  <si>
-    <t>{boolstr}</t>
-  </si>
-  <si>
-    <t>{comp}</t>
-  </si>
-  <si>
-    <t>{else,ϵ}</t>
-  </si>
-  <si>
-    <t>{return}</t>
-  </si>
-  <si>
-    <t>{rbrace}</t>
+      <t>40</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1902,15 +1845,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE1239-04FC-4E74-B834-9F6E0669E713}">
   <dimension ref="A1:AM111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1934,11 +1878,11 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="7" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -2021,65 +1965,65 @@
         <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2098,18 +2042,24 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
       <c r="Y3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
+      <c r="AE3" s="2">
+        <v>3</v>
+      </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
@@ -2123,12 +2073,8 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2147,22 +2093,18 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="W4" s="3"/>
-      <c r="X4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="2">
-        <v>4</v>
-      </c>
+      <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
@@ -2176,11 +2118,11 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2198,18 +2140,24 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="V5" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="2">
-        <v>8</v>
-      </c>
+      <c r="X5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="2">
+        <v>3</v>
+      </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2223,7 +2171,9 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2243,18 +2193,24 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2</v>
+      </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="AE6" s="2">
+        <v>3</v>
+      </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
@@ -2268,11 +2224,9 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2294,20 +2248,16 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="2">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="2">
+        <v>8</v>
+      </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="2">
-        <v>4</v>
-      </c>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -2341,10 +2291,10 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -2368,9 +2318,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2388,13 +2336,13 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="2">
-        <v>8</v>
-      </c>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -2415,18 +2363,20 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2462,10 +2412,10 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2505,8 +2455,12 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2518,17 +2472,25 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="U12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -2550,22 +2512,20 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2586,7 +2546,9 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AF13" s="2">
+        <v>13</v>
+      </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
@@ -2599,34 +2561,36 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2634,10 +2598,18 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
+      <c r="AA14" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>21</v>
+      </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
@@ -2652,55 +2624,49 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>16</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>21</v>
-      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -2715,15 +2681,9 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2731,18 +2691,16 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2768,11 +2726,9 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2802,9 +2758,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="2">
-        <v>25</v>
-      </c>
+      <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
@@ -2819,10 +2773,10 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2864,10 +2818,10 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2909,10 +2863,10 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2954,10 +2908,10 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2999,10 +2953,10 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3044,22 +2998,22 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="I23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="L23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3093,24 +3047,24 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="J24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3143,24 +3097,24 @@
         <v>22</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="K25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -3175,7 +3129,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC25" s="2">
         <v>20</v>
@@ -3199,24 +3153,24 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3250,24 +3204,24 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3310,10 +3264,10 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -3346,9 +3300,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3356,11 +3308,15 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3377,7 +3333,9 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
+      <c r="AG29" s="2">
+        <v>31</v>
+      </c>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
@@ -3390,7 +3348,9 @@
         <v>27</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3398,10 +3358,12 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3417,9 +3379,15 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
+      <c r="AB30" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>21</v>
+      </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
@@ -3435,24 +3403,24 @@
         <v>28</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="K31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3466,11 +3434,9 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
-      <c r="AB31" s="2">
-        <v>33</v>
-      </c>
+      <c r="AB31" s="3"/>
       <c r="AC31" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AD31" s="2">
         <v>21</v>
@@ -3491,9 +3457,7 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3502,12 +3466,10 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3522,12 +3484,8 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="2">
-        <v>34</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>21</v>
-      </c>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
@@ -3542,8 +3500,12 @@
       <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3553,22 +3515,32 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="O33" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="Q33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="U33" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="Y33" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>39</v>
+      </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -3576,8 +3548,12 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
+      <c r="AH33" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
@@ -3597,12 +3573,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -3633,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3649,9 +3625,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -3667,9 +3641,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="2">
-        <v>37</v>
-      </c>
+      <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
@@ -3683,20 +3655,20 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="D36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="L36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -3730,22 +3702,22 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="D37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="I37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="L37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -3779,24 +3751,24 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="D38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3828,15 +3800,9 @@
       <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3850,23 +3816,17 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
+      <c r="U39" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>44</v>
-      </c>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
@@ -3874,23 +3834,25 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-      <c r="AH39" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" s="2">
-        <v>41</v>
-      </c>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
+      <c r="AM39" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3900,22 +3862,32 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="Q40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="U40" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
+      <c r="Y40" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>39</v>
+      </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
@@ -3923,8 +3895,12 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
+      <c r="AH40" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
@@ -3934,9 +3910,11 @@
       <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3949,13 +3927,21 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="O41" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="Q41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="U41" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -3981,7 +3967,9 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3990,9 +3978,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4033,7 +4019,9 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4044,9 +4032,7 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
-      <c r="V43" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
@@ -4063,53 +4049,39 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-      <c r="AM43" s="2">
-        <v>49</v>
-      </c>
+      <c r="AM43" s="3"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>44</v>
-      </c>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
@@ -4117,12 +4089,8 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-      <c r="AH44" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI44" s="2">
-        <v>41</v>
-      </c>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
@@ -4133,7 +4101,9 @@
         <v>42</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4146,21 +4116,19 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
-      <c r="V45" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
+      <c r="Z45" s="2">
+        <v>8</v>
+      </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
@@ -4179,16 +4147,12 @@
       <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -4201,12 +4165,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4233,11 +4193,11 @@
         <v>44</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -4287,12 +4247,12 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="O48" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -4323,19 +4283,29 @@
         <v>46</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M49" s="3"/>
+      <c r="K49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -4349,10 +4319,18 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
+      <c r="AA49" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>21</v>
+      </c>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
@@ -4371,9 +4349,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -4382,13 +4358,17 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="O50" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
+      <c r="U50" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -4412,11 +4392,13 @@
       <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="B51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4427,13 +4409,21 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="O51" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
+      <c r="Q51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
+      <c r="U51" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -4463,7 +4453,9 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4471,9 +4463,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4493,8 +4483,12 @@
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
+      <c r="AJ52" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK52" s="2">
+        <v>56</v>
+      </c>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
     </row>
@@ -4504,29 +4498,19 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
@@ -4539,25 +4523,21 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
-      <c r="AA53" s="2">
-        <v>57</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>16</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>21</v>
-      </c>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
+      <c r="AJ53" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK53" s="2">
+        <v>56</v>
+      </c>
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
     </row>
@@ -4567,8 +4547,12 @@
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -4579,17 +4563,13 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
-      <c r="V54" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
@@ -4612,15 +4592,9 @@
       <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4628,18 +4602,18 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="P55" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
@@ -4653,7 +4627,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
+      <c r="AG55" s="2">
+        <v>59</v>
+      </c>
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
@@ -4665,16 +4641,16 @@
       <c r="A56" s="2">
         <v>53</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -4687,7 +4663,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
+      <c r="V56" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -4701,12 +4679,8 @@
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
-      <c r="AJ56" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK56" s="2">
-        <v>59</v>
-      </c>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
       <c r="AM56" s="3"/>
     </row>
@@ -4716,14 +4690,14 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -4750,12 +4724,8 @@
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
-      <c r="AJ57" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK57" s="2">
-        <v>59</v>
-      </c>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
       <c r="AM57" s="3"/>
     </row>
@@ -4763,9 +4733,7 @@
       <c r="A58" s="2">
         <v>55</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4775,14 +4743,14 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="L58" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -4798,9 +4766,7 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
-      <c r="AG58" s="2">
-        <v>62</v>
-      </c>
+      <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
@@ -4812,12 +4778,8 @@
       <c r="A59" s="2">
         <v>56</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -4833,7 +4795,9 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
+      <c r="S59" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
@@ -4862,9 +4826,7 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4878,7 +4840,9 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
+      <c r="S60" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -4914,10 +4878,10 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="L61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -4959,7 +4923,9 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="L62" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -4967,9 +4933,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -5007,14 +4971,14 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
+      <c r="O63" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -5050,10 +5014,10 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
@@ -5090,14 +5054,14 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -5120,8 +5084,12 @@
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
-      <c r="AJ65" s="3"/>
-      <c r="AK65" s="3"/>
+      <c r="AJ65" s="2">
+        <v>65</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>56</v>
+      </c>
       <c r="AL65" s="3"/>
       <c r="AM65" s="3"/>
     </row>
@@ -5141,11 +5109,11 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="N66" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="O66" s="3"/>
-      <c r="P66" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
@@ -5174,8 +5142,12 @@
       <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -5188,19 +5160,29 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
+      <c r="Q67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
+      <c r="U67" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
+      <c r="Y67" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>39</v>
+      </c>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
@@ -5208,8 +5190,12 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
-      <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
+      <c r="AH67" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
@@ -5226,12 +5212,12 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -5255,12 +5241,8 @@
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
-      <c r="AJ68" s="2">
-        <v>68</v>
-      </c>
-      <c r="AK68" s="2">
-        <v>59</v>
-      </c>
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
       <c r="AM68" s="3"/>
     </row>
@@ -5268,8 +5250,12 @@
       <c r="A69" s="2">
         <v>66</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -5282,19 +5268,29 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
+      <c r="Q69" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
+      <c r="U69" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
+      <c r="Y69" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>39</v>
+      </c>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
@@ -5302,8 +5298,12 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
-      <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
+      <c r="AH69" s="2">
+        <v>68</v>
+      </c>
+      <c r="AI69" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
@@ -5313,15 +5313,9 @@
       <c r="A70" s="2">
         <v>67</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -5332,26 +5326,20 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="O70" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-      <c r="Y70" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z70" s="2">
-        <v>44</v>
-      </c>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
@@ -5359,12 +5347,8 @@
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
-      <c r="AH70" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI70" s="2">
-        <v>41</v>
-      </c>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
@@ -5385,11 +5369,11 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
+      <c r="O71" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
@@ -5420,14 +5404,12 @@
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -5438,26 +5420,28 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
+      <c r="O72" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
+      <c r="Q72" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="R72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-      <c r="Y72" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z72" s="2">
-        <v>44</v>
-      </c>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
@@ -5465,23 +5449,25 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
-      <c r="AH72" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI72" s="2">
-        <v>41</v>
-      </c>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
-      <c r="AL72" s="3"/>
+      <c r="AL72" s="2">
+        <v>71</v>
+      </c>
       <c r="AM72" s="3"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>70</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -5493,15 +5479,21 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
+      <c r="O73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
+      <c r="U73" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -5525,8 +5517,12 @@
       <c r="A74" s="2">
         <v>71</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -5538,15 +5534,21 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
+      <c r="O74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
+      <c r="U74" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -5570,9 +5572,7 @@
       <c r="A75" s="2">
         <v>72</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5584,16 +5584,16 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="N75" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
-      <c r="U75" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
@@ -5610,9 +5610,7 @@
       <c r="AI75" s="3"/>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
-      <c r="AL75" s="2">
-        <v>74</v>
-      </c>
+      <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
@@ -5620,14 +5618,12 @@
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -5638,22 +5634,30 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
+      <c r="O76" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
+      <c r="Q76" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="R76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
+      <c r="U76" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
+      <c r="Y76" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>39</v>
+      </c>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
@@ -5661,8 +5665,12 @@
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
-      <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
+      <c r="AH76" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI76" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
@@ -5672,15 +5680,9 @@
       <c r="A77" s="2">
         <v>74</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -5691,15 +5693,13 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
+      <c r="O77" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="S77" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
@@ -5725,8 +5725,12 @@
       <c r="A78" s="2">
         <v>75</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -5739,14 +5743,20 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
+      <c r="Q78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
+      <c r="U78" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
@@ -5766,417 +5776,205 @@
       <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>76</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-      <c r="AF79" s="3"/>
-      <c r="AG79" s="3"/>
-      <c r="AH79" s="3"/>
-      <c r="AI79" s="3"/>
-      <c r="AJ79" s="3"/>
-      <c r="AK79" s="3"/>
-      <c r="AL79" s="3"/>
-      <c r="AM79" s="3"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>77</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z80" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="3"/>
-      <c r="AH80" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ80" s="3"/>
-      <c r="AK80" s="3"/>
-      <c r="AL80" s="3"/>
-      <c r="AM80" s="3"/>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>78</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-      <c r="AF81" s="3"/>
-      <c r="AG81" s="3"/>
-      <c r="AH81" s="3"/>
-      <c r="AI81" s="3"/>
-      <c r="AJ81" s="3"/>
-      <c r="AK81" s="3"/>
-      <c r="AL81" s="3"/>
-      <c r="AM81" s="3"/>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>79</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="3"/>
-      <c r="AG82" s="3"/>
-      <c r="AH82" s="3"/>
-      <c r="AI82" s="3"/>
-      <c r="AJ82" s="3"/>
-      <c r="AK82" s="3"/>
-      <c r="AL82" s="3"/>
-      <c r="AM82" s="3"/>
-    </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="W1:AM1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="X1:AM1"/>
     <mergeCell ref="A94:C94"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gon13\Desktop\SLR_Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64602FB-ABE3-40EB-89E2-BF70A798A55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BD5E88-387C-4279-B56B-1530F651B802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82FA2198-A6C1-4281-B50F-11B783A36942}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
   <si>
     <t>ACTION</t>
   </si>
@@ -135,9 +135,6 @@
     <t>COND</t>
   </si>
   <si>
-    <t>COND1</t>
-  </si>
-  <si>
     <t>ELSE</t>
   </si>
   <si>
@@ -145,6 +142,21 @@
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -154,6 +166,180 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>7</t>
     </r>
   </si>
@@ -169,7 +355,37 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
     </r>
   </si>
   <si>
@@ -183,11 +399,144 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>10</t>
     </r>
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -197,7 +546,22 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>11</t>
+      <t>46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
     </r>
   </si>
   <si>
@@ -211,7 +575,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>12</t>
+      <t>48</t>
     </r>
   </si>
   <si>
@@ -226,7 +590,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>21</t>
     </r>
   </si>
   <si>
@@ -240,26 +604,454 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>44</t>
+    </r>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>14</t>
     </r>
   </si>
   <si>
     <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>s</t>
     </r>
     <r>
@@ -311,7 +1103,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>19</t>
+      <t>22</t>
     </r>
   </si>
   <si>
@@ -325,7 +1117,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>22</t>
+      <t>42</t>
     </r>
   </si>
   <si>
@@ -339,22 +1131,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
+      <t>43</t>
     </r>
   </si>
   <si>
@@ -368,7 +1145,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>27</t>
+      <t>40</t>
     </r>
   </si>
   <si>
@@ -382,97 +1159,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>11</t>
+      <t>49</t>
     </r>
   </si>
   <si>
@@ -486,52 +1173,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>16</t>
+      <t>51</t>
     </r>
   </si>
   <si>
@@ -545,22 +1187,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>19</t>
+      <t>59</t>
     </r>
   </si>
   <si>
@@ -574,52 +1201,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>14</t>
+      <t>61</t>
     </r>
   </si>
   <si>
@@ -633,7 +1215,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>42</t>
+      <t>62</t>
     </r>
   </si>
   <si>
@@ -647,22 +1229,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>18</t>
+      <t>68</t>
     </r>
   </si>
   <si>
@@ -676,22 +1243,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>48</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>21</t>
+      <t>71</t>
     </r>
   </si>
   <si>
@@ -705,637 +1257,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>53</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>69</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>72</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>73</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>27</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
-    <t>FIRST / FOLLOW table</t>
-  </si>
-  <si>
-    <t>Nonterminal</t>
-  </si>
-  <si>
-    <t>FIRST</t>
-  </si>
-  <si>
-    <t>FOLLOW</t>
-  </si>
-  <si>
-    <t>{ϵ,vtype}</t>
-  </si>
-  <si>
-    <t>{$}</t>
-  </si>
-  <si>
-    <t>{vtype}</t>
-  </si>
-  <si>
-    <t>{ϵ,vtype,id,if,while}</t>
-  </si>
-  <si>
-    <t>{id}</t>
-  </si>
-  <si>
-    <t>{semi}</t>
-  </si>
-  <si>
-    <t>{literal,character,boolstr,lparen,id,num}</t>
-  </si>
-  <si>
-    <t>{lparen,id,num}</t>
-  </si>
-  <si>
-    <t>{semi,rparen}</t>
-  </si>
-  <si>
-    <t>{addsub,semi,rparen}</t>
-  </si>
-  <si>
-    <t>{multdiv,addsub,semi,rparen}</t>
-  </si>
-  <si>
-    <t>{vtype,ϵ}</t>
-  </si>
-  <si>
-    <t>{rparen}</t>
-  </si>
-  <si>
-    <t>{comma,ϵ}</t>
-  </si>
-  <si>
-    <t>{return,rbrace}</t>
-  </si>
-  <si>
-    <t>{vtype,id,if,while}</t>
-  </si>
-  <si>
-    <t>{boolstr}</t>
-  </si>
-  <si>
-    <t>{comp}</t>
-  </si>
-  <si>
-    <t>{else,ϵ}</t>
-  </si>
-  <si>
-    <t>{return}</t>
-  </si>
-  <si>
-    <t>{rbrace}</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>61</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>62</t>
-    </r>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>57</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>40</t>
+      <t>74</t>
     </r>
   </si>
 </sst>
@@ -1843,18 +1765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE1239-04FC-4E74-B834-9F6E0669E713}">
-  <dimension ref="A1:AM111"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1896,10 +1818,9 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="9"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AL1" s="9"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1965,7 +1886,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>23</v>
@@ -2012,16 +1933,13 @@
       <c r="AL2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2043,7 +1961,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="2">
@@ -2067,9 +1985,8 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2094,7 +2011,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="4" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -2112,14 +2029,13 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2141,7 +2057,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="2">
@@ -2165,14 +2081,13 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2194,7 +2109,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="2">
@@ -2218,15 +2133,14 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2265,9 +2179,8 @@
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2292,7 +2205,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -2310,9 +2223,8 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2337,7 +2249,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -2355,19 +2267,18 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2375,7 +2286,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2404,16 +2315,15 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2449,17 +2359,16 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2473,22 +2382,22 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -2506,14 +2415,13 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2525,7 +2433,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2555,35 +2463,34 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2618,17 +2525,16 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2642,22 +2548,22 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -2675,9 +2581,8 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2692,7 +2597,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2720,15 +2625,14 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2765,16 +2669,15 @@
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2810,16 +2713,15 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2855,16 +2757,15 @@
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2900,16 +2801,15 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2945,16 +2845,15 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2990,28 +2889,27 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3039,30 +2937,29 @@
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3090,15 +2987,14 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3108,11 +3004,11 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3145,30 +3041,29 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3196,30 +3091,29 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3247,9 +3141,8 @@
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3266,7 +3159,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3292,9 +3185,8 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3309,13 +3201,13 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -3341,15 +3233,14 @@
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3359,11 +3250,11 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3396,15 +3287,14 @@
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3414,11 +3304,11 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3449,9 +3339,8 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3466,7 +3355,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3494,17 +3383,16 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3518,19 +3406,19 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -3557,9 +3445,8 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3574,7 +3461,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3602,14 +3489,13 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3647,16 +3533,15 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3666,7 +3551,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -3694,28 +3579,27 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -3743,30 +3627,29 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -3794,9 +3677,8 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3820,7 +3702,7 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -3838,20 +3720,19 @@
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="2">
+      <c r="AL39" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3865,19 +3746,19 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -3904,17 +3785,16 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3928,19 +3808,19 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -3959,16 +3839,15 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4004,9 +3883,8 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4020,7 +3898,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4049,9 +3927,8 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4065,7 +3942,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -4094,15 +3971,14 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4141,9 +4017,8 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4151,7 +4026,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4186,15 +4061,14 @@
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
-      <c r="AM46" s="3"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4231,9 +4105,8 @@
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4251,7 +4124,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -4276,35 +4149,34 @@
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -4339,9 +4211,8 @@
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4359,7 +4230,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -4367,7 +4238,7 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -4386,17 +4257,16 @@
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4410,19 +4280,19 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -4441,9 +4311,8 @@
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -4454,7 +4323,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -4486,13 +4355,10 @@
       <c r="AJ52" s="2">
         <v>55</v>
       </c>
-      <c r="AK52" s="2">
-        <v>56</v>
-      </c>
+      <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -4503,7 +4369,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -4533,25 +4399,22 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK53" s="2">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>51</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4586,9 +4449,8 @@
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -4603,13 +4465,13 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -4628,21 +4490,20 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
-      <c r="AM55" s="3"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4664,7 +4525,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -4682,16 +4543,15 @@
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
-      <c r="AM56" s="3"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>54</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4727,9 +4587,8 @@
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
-      <c r="AM57" s="3"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -4744,7 +4603,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -4772,9 +4631,8 @@
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
-      <c r="AM58" s="3"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -4788,7 +4646,9 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4796,7 +4656,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -4817,9 +4677,8 @@
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -4833,16 +4692,16 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
-      <c r="S60" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -4862,9 +4721,8 @@
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
-      <c r="AM60" s="3"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -4879,7 +4737,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -4907,9 +4765,8 @@
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
-      <c r="AM61" s="3"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -4923,12 +4780,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
+      <c r="O62" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
@@ -4952,9 +4809,8 @@
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
-      <c r="AM62" s="3"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -4970,10 +4826,10 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="N63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -4997,9 +4853,8 @@
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -5009,15 +4864,15 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
-      <c r="N64" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
@@ -5039,12 +4894,13 @@
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
+      <c r="AJ64" s="2">
+        <v>64</v>
+      </c>
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
-      <c r="AM64" s="3"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -5054,15 +4910,15 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="N65" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -5084,21 +4940,20 @@
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
-      <c r="AJ65" s="2">
-        <v>65</v>
-      </c>
-      <c r="AK65" s="2">
-        <v>56</v>
-      </c>
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
-      <c r="AM65" s="3"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>63</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -5109,21 +4964,31 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
+      <c r="Q66" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
+      <c r="U66" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
+      <c r="Y66" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>39</v>
+      </c>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
@@ -5131,23 +4996,22 @@
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
-      <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
+      <c r="AH66" s="2">
+        <v>66</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
-      <c r="AM66" s="3"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -5156,33 +5020,23 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="L67" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-      <c r="U67" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z67" s="2">
-        <v>39</v>
-      </c>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
@@ -5190,23 +5044,22 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
-      <c r="AH67" s="2">
-        <v>67</v>
-      </c>
-      <c r="AI67" s="2">
-        <v>37</v>
-      </c>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
-      <c r="AM67" s="3"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>65</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -5215,23 +5068,33 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="O68" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
+      <c r="Q68" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
+      <c r="U68" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
+      <c r="Y68" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>39</v>
+      </c>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
@@ -5239,23 +5102,22 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
+      <c r="AH68" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI68" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
-      <c r="AM68" s="3"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>66</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -5268,29 +5130,19 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="P69" s="3"/>
-      <c r="Q69" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="Y69" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z69" s="2">
-        <v>39</v>
-      </c>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
@@ -5298,18 +5150,13 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
-      <c r="AH69" s="2">
-        <v>68</v>
-      </c>
-      <c r="AI69" s="2">
-        <v>37</v>
-      </c>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
-      <c r="AM69" s="3"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -5327,7 +5174,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
@@ -5352,14 +5199,17 @@
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
-      <c r="AM70" s="3"/>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>68</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -5372,14 +5222,22 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
+      <c r="Q71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
+      <c r="T71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
@@ -5395,19 +5253,20 @@
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3"/>
-      <c r="AK71" s="3"/>
+      <c r="AK71" s="2">
+        <v>70</v>
+      </c>
       <c r="AL71" s="3"/>
-      <c r="AM71" s="3"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5421,21 +5280,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="S72" s="3"/>
-      <c r="T72" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="T72" s="3"/>
       <c r="U72" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -5453,20 +5310,17 @@
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
-      <c r="AL72" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM72" s="3"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AL72" s="3"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5480,19 +5334,19 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -5511,18 +5365,13 @@
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
-      <c r="AM73" s="3"/>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>71</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -5533,22 +5382,16 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="N74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -5566,14 +5409,17 @@
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
-      <c r="AM74" s="3"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>72</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -5584,21 +5430,31 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
+      <c r="Q75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
+      <c r="U75" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
+      <c r="Y75" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>39</v>
+      </c>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
@@ -5606,23 +5462,22 @@
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
-      <c r="AH75" s="3"/>
-      <c r="AI75" s="3"/>
+      <c r="AH75" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" s="2">
+        <v>37</v>
+      </c>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
-      <c r="AM75" s="3"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>73</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -5635,29 +5490,19 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="P76" s="3"/>
-      <c r="Q76" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-      <c r="Y76" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z76" s="2">
-        <v>39</v>
-      </c>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
@@ -5665,23 +5510,22 @@
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
-      <c r="AH76" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI76" s="2">
-        <v>37</v>
-      </c>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
-      <c r="AM76" s="3"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>74</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -5694,14 +5538,20 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
+      <c r="Q77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
+      <c r="U77" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
@@ -5719,263 +5569,12 @@
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
-      <c r="AM77" s="3"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>75</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-      <c r="AH78" s="3"/>
-      <c r="AI78" s="3"/>
-      <c r="AJ78" s="3"/>
-      <c r="AK78" s="3"/>
-      <c r="AL78" s="3"/>
-      <c r="AM78" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:V1"/>
-    <mergeCell ref="W1:AM1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="W1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
